--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H2">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I2">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J2">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.3397939459292</v>
+        <v>2.661285666666667</v>
       </c>
       <c r="N2">
-        <v>2.3397939459292</v>
+        <v>7.983857</v>
       </c>
       <c r="O2">
-        <v>0.04077743312006413</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="P2">
-        <v>0.04077743312006413</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="Q2">
-        <v>113.3718197680862</v>
+        <v>239.4092310733814</v>
       </c>
       <c r="R2">
-        <v>113.3718197680862</v>
+        <v>2154.683079660433</v>
       </c>
       <c r="S2">
-        <v>0.0005045137491079622</v>
+        <v>0.001022003164724178</v>
       </c>
       <c r="T2">
-        <v>0.0005045137491079622</v>
+        <v>0.001022003164724178</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H3">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I3">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J3">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.1681064567775</v>
+        <v>41.3123</v>
       </c>
       <c r="N3">
-        <v>41.1681064567775</v>
+        <v>123.9369</v>
       </c>
       <c r="O3">
-        <v>0.7174690363831387</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="P3">
-        <v>0.7174690363831387</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="Q3">
-        <v>1994.749646023913</v>
+        <v>3716.454081106233</v>
       </c>
       <c r="R3">
-        <v>1994.749646023913</v>
+        <v>33448.08672995611</v>
       </c>
       <c r="S3">
-        <v>0.00887679693689275</v>
+        <v>0.01586500159335318</v>
       </c>
       <c r="T3">
-        <v>0.00887679693689275</v>
+        <v>0.01586500159335319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H4">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I4">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J4">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>13.87172766363</v>
+        <v>0.05052933333333334</v>
       </c>
       <c r="N4">
-        <v>13.87172766363</v>
+        <v>0.151588</v>
       </c>
       <c r="O4">
-        <v>0.241753530496797</v>
+        <v>0.0008566477123819265</v>
       </c>
       <c r="P4">
-        <v>0.241753530496797</v>
+        <v>0.0008566477123819263</v>
       </c>
       <c r="Q4">
-        <v>672.1373953843985</v>
+        <v>4.545618304530223</v>
       </c>
       <c r="R4">
-        <v>672.1373953843985</v>
+        <v>40.910564740772</v>
       </c>
       <c r="S4">
-        <v>0.002991065663007905</v>
+        <v>1.940458298967638E-05</v>
       </c>
       <c r="T4">
-        <v>0.002991065663007905</v>
+        <v>1.940458298967638E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3844.36250207129</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H5">
-        <v>3844.36250207129</v>
+        <v>269.879969</v>
       </c>
       <c r="I5">
-        <v>0.981634808235257</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J5">
-        <v>0.981634808235257</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3397939459292</v>
+        <v>14.96084766666667</v>
       </c>
       <c r="N5">
-        <v>2.3397939459292</v>
+        <v>44.882543</v>
       </c>
       <c r="O5">
-        <v>0.04077743312006413</v>
+        <v>0.2536383340820741</v>
       </c>
       <c r="P5">
-        <v>0.04077743312006413</v>
+        <v>0.253638334082074</v>
       </c>
       <c r="Q5">
-        <v>8995.016108303636</v>
+        <v>1345.877701497908</v>
       </c>
       <c r="R5">
-        <v>8995.016108303636</v>
+        <v>12112.89931348117</v>
       </c>
       <c r="S5">
-        <v>0.04002854774114017</v>
+        <v>0.005745356033665057</v>
       </c>
       <c r="T5">
-        <v>0.04002854774114017</v>
+        <v>0.005745356033665057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H6">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I6">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J6">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.1681064567775</v>
+        <v>2.661285666666667</v>
       </c>
       <c r="N6">
-        <v>41.1681064567775</v>
+        <v>7.983857</v>
       </c>
       <c r="O6">
-        <v>0.7174690363831387</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="P6">
-        <v>0.7174690363831387</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="Q6">
-        <v>158265.1247437144</v>
+        <v>10266.09138288065</v>
       </c>
       <c r="R6">
-        <v>158265.1247437144</v>
+        <v>92394.82244592583</v>
       </c>
       <c r="S6">
-        <v>0.704292579944697</v>
+        <v>0.04382445002480181</v>
       </c>
       <c r="T6">
-        <v>0.704292579944697</v>
+        <v>0.04382445002480181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H7">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J7">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.87172766363</v>
+        <v>41.3123</v>
       </c>
       <c r="N7">
-        <v>13.87172766363</v>
+        <v>123.9369</v>
       </c>
       <c r="O7">
-        <v>0.241753530496797</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="P7">
-        <v>0.241753530496797</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="Q7">
-        <v>53327.94966900416</v>
+        <v>159365.0213312864</v>
       </c>
       <c r="R7">
-        <v>53327.94966900416</v>
+        <v>1434285.191981578</v>
       </c>
       <c r="S7">
-        <v>0.2373136805494197</v>
+        <v>0.680306082671428</v>
       </c>
       <c r="T7">
-        <v>0.2373136805494197</v>
+        <v>0.6803060826714282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.128936447352119</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H8">
-        <v>0.128936447352119</v>
+        <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>3.292314517760468E-05</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J8">
-        <v>3.292314517760468E-05</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.3397939459292</v>
+        <v>0.05052933333333334</v>
       </c>
       <c r="N8">
-        <v>2.3397939459292</v>
+        <v>0.151588</v>
       </c>
       <c r="O8">
-        <v>0.04077743312006413</v>
+        <v>0.0008566477123819265</v>
       </c>
       <c r="P8">
-        <v>0.04077743312006413</v>
+        <v>0.0008566477123819263</v>
       </c>
       <c r="Q8">
-        <v>0.3016847189241071</v>
+        <v>194.9203574848738</v>
       </c>
       <c r="R8">
-        <v>0.3016847189241071</v>
+        <v>1754.283217363864</v>
       </c>
       <c r="S8">
-        <v>1.342521350581937E-06</v>
+        <v>0.0008320866381198533</v>
       </c>
       <c r="T8">
-        <v>1.342521350581937E-06</v>
+        <v>0.0008320866381198533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.128936447352119</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H9">
-        <v>0.128936447352119</v>
+        <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>3.292314517760468E-05</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J9">
-        <v>3.292314517760468E-05</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.1681064567775</v>
+        <v>14.96084766666667</v>
       </c>
       <c r="N9">
-        <v>41.1681064567775</v>
+        <v>44.882543</v>
       </c>
       <c r="O9">
-        <v>0.7174690363831387</v>
+        <v>0.2536383340820741</v>
       </c>
       <c r="P9">
-        <v>0.7174690363831387</v>
+        <v>0.253638334082074</v>
       </c>
       <c r="Q9">
-        <v>5.308069390750723</v>
+        <v>57712.49258773925</v>
       </c>
       <c r="R9">
-        <v>5.308069390750723</v>
+        <v>519412.4332896533</v>
       </c>
       <c r="S9">
-        <v>2.362133724527821E-05</v>
+        <v>0.2463662315957711</v>
       </c>
       <c r="T9">
-        <v>2.362133724527821E-05</v>
+        <v>0.2463662315957711</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H10">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I10">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J10">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.87172766363</v>
+        <v>2.661285666666667</v>
       </c>
       <c r="N10">
-        <v>13.87172766363</v>
+        <v>7.983857</v>
       </c>
       <c r="O10">
-        <v>0.241753530496797</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="P10">
-        <v>0.241753530496797</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="Q10">
-        <v>1.788571283584562</v>
+        <v>0.3572013105608889</v>
       </c>
       <c r="R10">
-        <v>1.788571283584562</v>
+        <v>3.214811795048</v>
       </c>
       <c r="S10">
-        <v>7.959286581744529E-06</v>
+        <v>1.524840409035679E-06</v>
       </c>
       <c r="T10">
-        <v>7.959286581744529E-06</v>
+        <v>1.524840409035679E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.3406417224581</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H11">
-        <v>23.3406417224581</v>
+        <v>0.402664</v>
       </c>
       <c r="I11">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J11">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.3397939459292</v>
+        <v>41.3123</v>
       </c>
       <c r="N11">
-        <v>2.3397939459292</v>
+        <v>123.9369</v>
       </c>
       <c r="O11">
-        <v>0.04077743312006413</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="P11">
-        <v>0.04077743312006413</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="Q11">
-        <v>54.61229219630996</v>
+        <v>5.544991989066666</v>
       </c>
       <c r="R11">
-        <v>54.61229219630996</v>
+        <v>49.9049279016</v>
       </c>
       <c r="S11">
-        <v>0.0002430291084654162</v>
+        <v>2.367076380383742E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002430291084654162</v>
+        <v>2.367076380383743E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.3406417224581</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H12">
-        <v>23.3406417224581</v>
+        <v>0.402664</v>
       </c>
       <c r="I12">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J12">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>41.1681064567775</v>
+        <v>0.05052933333333334</v>
       </c>
       <c r="N12">
-        <v>41.1681064567775</v>
+        <v>0.151588</v>
       </c>
       <c r="O12">
-        <v>0.7174690363831387</v>
+        <v>0.0008566477123819265</v>
       </c>
       <c r="P12">
-        <v>0.7174690363831387</v>
+        <v>0.0008566477123819263</v>
       </c>
       <c r="Q12">
-        <v>960.8900231996575</v>
+        <v>0.006782114492444444</v>
       </c>
       <c r="R12">
-        <v>960.8900231996575</v>
+        <v>0.06103903043200001</v>
       </c>
       <c r="S12">
-        <v>0.004276038164303688</v>
+        <v>2.895185972455425E-08</v>
       </c>
       <c r="T12">
-        <v>0.004276038164303688</v>
+        <v>2.895185972455425E-08</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1342213333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.402664</v>
+      </c>
+      <c r="I13">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="J13">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.96084766666667</v>
+      </c>
+      <c r="N13">
+        <v>44.882543</v>
+      </c>
+      <c r="O13">
+        <v>0.2536383340820741</v>
+      </c>
+      <c r="P13">
+        <v>0.253638334082074</v>
+      </c>
+      <c r="Q13">
+        <v>2.008064921616889</v>
+      </c>
+      <c r="R13">
+        <v>18.072584294552</v>
+      </c>
+      <c r="S13">
+        <v>8.572136904090524E-06</v>
+      </c>
+      <c r="T13">
+        <v>8.572136904090524E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.253661</v>
+      </c>
+      <c r="H14">
+        <v>0.760983</v>
+      </c>
+      <c r="I14">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J14">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.661285666666667</v>
+      </c>
+      <c r="N14">
+        <v>7.983857</v>
+      </c>
+      <c r="O14">
+        <v>0.04511803595953789</v>
+      </c>
+      <c r="P14">
+        <v>0.04511803595953789</v>
+      </c>
+      <c r="Q14">
+        <v>0.6750643834923332</v>
+      </c>
+      <c r="R14">
+        <v>6.075579451431</v>
+      </c>
+      <c r="S14">
+        <v>2.881751606771894E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.881751606771894E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.253661</v>
+      </c>
+      <c r="H15">
+        <v>0.760983</v>
+      </c>
+      <c r="I15">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J15">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>41.3123</v>
+      </c>
+      <c r="N15">
+        <v>123.9369</v>
+      </c>
+      <c r="O15">
+        <v>0.7003869822460062</v>
+      </c>
+      <c r="P15">
+        <v>0.7003869822460062</v>
+      </c>
+      <c r="Q15">
+        <v>10.4793193303</v>
+      </c>
+      <c r="R15">
+        <v>94.31387397270001</v>
+      </c>
+      <c r="S15">
+        <v>4.473468909993347E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.473468909993348E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.253661</v>
+      </c>
+      <c r="H16">
+        <v>0.760983</v>
+      </c>
+      <c r="I16">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J16">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05052933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.151588</v>
+      </c>
+      <c r="O16">
+        <v>0.0008566477123819265</v>
+      </c>
+      <c r="P16">
+        <v>0.0008566477123819263</v>
+      </c>
+      <c r="Q16">
+        <v>0.01281732122266667</v>
+      </c>
+      <c r="R16">
+        <v>0.115355891004</v>
+      </c>
+      <c r="S16">
+        <v>5.471527891435655E-08</v>
+      </c>
+      <c r="T16">
+        <v>5.471527891435655E-08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.253661</v>
+      </c>
+      <c r="H17">
+        <v>0.760983</v>
+      </c>
+      <c r="I17">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J17">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.96084766666667</v>
+      </c>
+      <c r="N17">
+        <v>44.882543</v>
+      </c>
+      <c r="O17">
+        <v>0.2536383340820741</v>
+      </c>
+      <c r="P17">
+        <v>0.253638334082074</v>
+      </c>
+      <c r="Q17">
+        <v>3.794983579974333</v>
+      </c>
+      <c r="R17">
+        <v>34.154852219769</v>
+      </c>
+      <c r="S17">
+        <v>1.620023259513023E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.620023259513023E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H18">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I18">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J18">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.661285666666667</v>
+      </c>
+      <c r="N18">
+        <v>7.983857</v>
+      </c>
+      <c r="O18">
+        <v>0.04511803595953789</v>
+      </c>
+      <c r="P18">
+        <v>0.04511803595953789</v>
+      </c>
+      <c r="Q18">
+        <v>62.58732413263323</v>
+      </c>
+      <c r="R18">
+        <v>563.2859171936991</v>
+      </c>
+      <c r="S18">
+        <v>0.0002671761779960912</v>
+      </c>
+      <c r="T18">
+        <v>0.0002671761779960912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H19">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I19">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J19">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>41.3123</v>
+      </c>
+      <c r="N19">
+        <v>123.9369</v>
+      </c>
+      <c r="O19">
+        <v>0.7003869822460062</v>
+      </c>
+      <c r="P19">
+        <v>0.7003869822460062</v>
+      </c>
+      <c r="Q19">
+        <v>971.5703741053668</v>
+      </c>
+      <c r="R19">
+        <v>8744.133366948303</v>
+      </c>
+      <c r="S19">
+        <v>0.004147492528321054</v>
+      </c>
+      <c r="T19">
+        <v>0.004147492528321055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="H13">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="I13">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="J13">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>13.87172766363</v>
-      </c>
-      <c r="N13">
-        <v>13.87172766363</v>
-      </c>
-      <c r="O13">
-        <v>0.241753530496797</v>
-      </c>
-      <c r="P13">
-        <v>0.241753530496797</v>
-      </c>
-      <c r="Q13">
-        <v>323.7750254682986</v>
-      </c>
-      <c r="R13">
-        <v>323.7750254682986</v>
-      </c>
-      <c r="S13">
-        <v>0.001440824997787673</v>
-      </c>
-      <c r="T13">
-        <v>0.001440824997787673</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H20">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I20">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J20">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.05052933333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.151588</v>
+      </c>
+      <c r="O20">
+        <v>0.0008566477123819265</v>
+      </c>
+      <c r="P20">
+        <v>0.0008566477123819263</v>
+      </c>
+      <c r="Q20">
+        <v>1.188333820435111</v>
+      </c>
+      <c r="R20">
+        <v>10.695004383916</v>
+      </c>
+      <c r="S20">
+        <v>5.07282413375784E-06</v>
+      </c>
+      <c r="T20">
+        <v>5.07282413375784E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H21">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I21">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J21">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.96084766666667</v>
+      </c>
+      <c r="N21">
+        <v>44.882543</v>
+      </c>
+      <c r="O21">
+        <v>0.2536383340820741</v>
+      </c>
+      <c r="P21">
+        <v>0.253638334082074</v>
+      </c>
+      <c r="Q21">
+        <v>351.8447620790113</v>
+      </c>
+      <c r="R21">
+        <v>3166.602858711101</v>
+      </c>
+      <c r="S21">
+        <v>0.001501974083138665</v>
+      </c>
+      <c r="T21">
+        <v>0.001501974083138665</v>
       </c>
     </row>
   </sheetData>
